--- a/PLC/90_Library/Alarm/__doc__.xlsx
+++ b/PLC/90_Library/Alarm/__doc__.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.2\work\PlcFramework\PLC\90_Library\Alarm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCFBB9B-A322-4B9B-B3E2-53D86750C241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B94831-4B45-42F1-B49F-372ED3E9CE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{68167A51-26E3-4450-BADD-375455D19BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="CallHierarchy" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CallHierarchy!$A$2:$AJ$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="35">
   <si>
     <t>Object</t>
   </si>
@@ -136,9 +139,6 @@
     </r>
   </si>
   <si>
-    <t>_alarmTraceSuperUpdater</t>
-  </si>
-  <si>
     <t>alarmTraceSuperData[]</t>
   </si>
   <si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>_alarmTraceGlobalUpdater</t>
-  </si>
-  <si>
-    <t>_alarmTraceGlobalCollector(superId)</t>
   </si>
   <si>
     <r>
@@ -705,13 +702,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD51FD1-3261-4688-8B6C-01E560767421}">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
+      <selection pane="bottomRight" activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +752,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Z1" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="13"/>
       <c r="AB1" s="13"/>
@@ -848,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB2" s="14" t="s">
         <v>17</v>
@@ -860,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="AE2" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF2" s="14" t="s">
         <v>20</v>
@@ -892,10 +889,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -954,7 +951,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
@@ -963,10 +960,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -1050,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
@@ -1240,7 +1237,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="11" t="s">
@@ -1380,7 +1377,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="11"/>
@@ -1429,10 +1426,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="11"/>
@@ -1521,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
@@ -1668,7 +1665,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="11"/>
@@ -1806,7 +1803,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="11"/>
@@ -1855,10 +1852,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="11"/>
@@ -1966,36 +1963,10 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E31" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E26" s="15"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AJ24" xr:uid="{2AD51FD1-3261-4688-8B6C-01E560767421}"/>
   <mergeCells count="3">
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="P1:X1"/>

--- a/PLC/90_Library/Alarm/__doc__.xlsx
+++ b/PLC/90_Library/Alarm/__doc__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.2\work\PlcFramework\PLC\90_Library\Alarm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B94831-4B45-42F1-B49F-372ED3E9CE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E1BB27-EC63-4F87-A468-B23A0E5425A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{68167A51-26E3-4450-BADD-375455D19BCB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="36">
   <si>
     <t>Object</t>
   </si>
@@ -204,6 +204,32 @@
         <scheme val="minor"/>
       </rPr>
       <t>Super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Updater</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_alarmTrace</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Group</t>
     </r>
     <r>
       <rPr>
@@ -326,12 +352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -347,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -360,13 +380,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,7 +734,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK6" sqref="AK6"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,192 +752,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="P1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="H1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="P1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Z1" s="13" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Z1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
     </row>
     <row r="2" spans="1:36" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Y2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AC2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AD2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AE2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AF2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AG2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AH2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AI2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
       <c r="Z3" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,161 +973,161 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="11">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="9">
         <v>0</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="9">
         <v>0</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="9">
         <v>0</v>
       </c>
-      <c r="W4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4" s="11">
+      <c r="W4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="G6" s="3"/>
+      <c r="H6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="9">
         <v>0</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="9">
         <v>0</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="M6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="9">
         <v>0</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1110,41 +1136,41 @@
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1153,41 +1179,41 @@
       <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1196,95 +1222,95 @@
       <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
     </row>
     <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="11" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11" t="s">
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1293,41 +1319,41 @@
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1336,127 +1362,127 @@
       <c r="F12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
     </row>
     <row r="13" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11" t="s">
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="V14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="W14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="X14" s="11"/>
+      <c r="X14" s="9"/>
       <c r="AE14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1474,105 +1500,105 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="11">
+      <c r="G16" s="3"/>
+      <c r="H16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="9">
         <v>0</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="9">
         <v>0</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N16" s="11">
+      <c r="M16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="9">
         <v>0</v>
       </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1581,41 +1607,41 @@
       <c r="F17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1624,93 +1650,93 @@
       <c r="F18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
     </row>
     <row r="19" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11" t="s">
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2">
         <v>2</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>2</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1719,41 +1745,41 @@
       <c r="F20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1762,127 +1788,127 @@
       <c r="F21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
     </row>
     <row r="22" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>2</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11" t="s">
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="U23" s="11" t="s">
+      <c r="U23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="V23" s="11" t="s">
+      <c r="V23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="W23" s="11" t="s">
+      <c r="W23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="X23" s="11"/>
+      <c r="X23" s="9"/>
       <c r="AE23" s="1" t="s">
         <v>9</v>
       </c>
@@ -1900,70 +1926,70 @@
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="15"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AJ24" xr:uid="{2AD51FD1-3261-4688-8B6C-01E560767421}"/>

--- a/PLC/90_Library/Alarm/__doc__.xlsx
+++ b/PLC/90_Library/Alarm/__doc__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.2\work\PlcFramework\PLC\90_Library\Alarm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E1BB27-EC63-4F87-A468-B23A0E5425A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC709EF-318A-466C-80A3-876378A0A2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{68167A51-26E3-4450-BADD-375455D19BCB}"/>
   </bookViews>
@@ -166,32 +166,6 @@
   </si>
   <si>
     <r>
-      <t>_alarmtrace</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Global</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Collector(superId)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>_alarmTrace</t>
     </r>
     <r>
@@ -240,6 +214,32 @@
         <scheme val="minor"/>
       </rPr>
       <t>Updater</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_alarmTrace</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Global</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collector(superId)</t>
     </r>
   </si>
 </sst>
@@ -734,7 +734,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +986,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>25</v>
@@ -1079,7 +1079,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
@@ -1452,7 +1452,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>29</v>
@@ -1878,7 +1878,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>29</v>
